--- a/hows_life_dictionary_fr.xlsx
+++ b/hows_life_dictionary_fr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Data\WDP\Well being database\Data Monitor\data_monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E27F2D1-4149-4332-BADE-DF5EFF0F0C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA2B12D-ADA7-46E4-892D-CC5451148CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -814,13 +814,7 @@
     <t>3_3</t>
   </si>
   <si>
-    <t>La surcharge financière lié au coût du logement est mesurée par le pourcentage de ménages situés dans les 40 % inférieurs de la répartition des revenus qui consacrent plus de 40 % de leur revenu disponible aux coûts de logement, ce dernier seuil de 40 % étant basé sur la méthodologie utilisée par Eurostat pour les pays membres de l'UE. Les coûts de logement incluent les loyers réels ainsi que les coûts hypothécaires, englobant le remboursement du capital et les intérêts ; contrairement à la mesure de l’accessibilité financière du logement tirée des comptes nationaux, aucun loyer imputé pour les logements occupés par leur propriétaire n’est inclus. Aucune donnée sur les remboursements du principal hypothécaire n’est disponible pour le Danemark. Pour le Chili, le Mexique, la Corée et les États-Unis, le revenu brut est utilisé plutôt que le revenu disponible. Les données sont tirées de la base de données de l'OCDE sur le logement abordable, qui provient des données d'enquêtes auprès des ménages.</t>
-  </si>
-  <si>
     <t>Surcharge financière lié au coût du logement</t>
-  </si>
-  <si>
-    <t>Pourcentage des ménages dans la tranche inférieure de 40 % de la répartition des revenus consacrant plus de 40 % de leur revenu disponible aux frais de logement</t>
   </si>
   <si>
     <t>3_4</t>
@@ -1311,6 +1305,12 @@
       </rPr>
       <t>), selon laquelle l’observation la plus récente disponible pour chaque pays est reportée sur les années suivantes jusqu’à ce que de nouvelles données soient disponibles. Cette méthode permet de construire une série temporelle cohérente pour la moyenne de l’OCDE malgré les lacunes dans les données nationales et doit être interprétée en tenant compte de cet élément. Des informations sur les années pour lesquelles des valeurs reportées sont utilisées sont disponibles dans l’Explorateur de données de l’OCDE, accessible via le lien vers la &lt;b&gt;base de données OECD How’s Life?&lt;/b&gt; ci-dessus.&lt;br&gt;&lt;br&gt;La moyenne de l’OCDE repose à la fois sur des prévalence de l’obesité auto-déclarés et mesurés. Les résultats variant selon la méthode de collecte des données, cette moyenne doit être interprétée avec prudence. Des informations sur la méthodologie utilisée sont disponibles dans les métadonnées de la base de données sur le bien-être OECD How’s Life?, accessibles &lt;a href='https://www.oecd.org/content/dam/oecd/en/topics/policy-sub-issues/measuring-well-being-and-progress/oecd-well-being-database-definitions.pdf'&gt;ici&lt;/a&gt;.</t>
     </r>
+  </si>
+  <si>
+    <t>Pourcentage de la population dans la tranche inférieure de 40 % de la répartition des revenus consacrant plus de 40 % de leur revenu disponible aux frais de logement</t>
+  </si>
+  <si>
+    <t>La surcharge financière lié au coût du logement est mesurée par le pourcentage de la population situés dans les 40 % inférieurs de la répartition des revenus qui consacrent plus de 40 % de leur revenu disponible aux coûts de logement, ce dernier seuil de 40 % étant basé sur la méthodologie utilisée par Eurostat pour les pays membres de l'UE. Les coûts de logement incluent les loyers réels ainsi que les coûts hypothécaires, englobant le remboursement du capital et les intérêts ; contrairement à la mesure de l’accessibilité financière du logement tirée des comptes nationaux, aucun loyer imputé pour les logements occupés par leur propriétaire n’est inclus. Aucune donnée sur les remboursements du principal hypothécaire n’est disponible pour le Danemark. Pour le Chili, le Mexique, la Corée et les États-Unis, le revenu brut est utilisé plutôt que le revenu disponible. Les données sont tirées de la base de données de l'OCDE sur le logement abordable, qui provient des données d'enquêtes auprès des ménages.</t>
   </si>
 </sst>
 </file>
@@ -1657,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1683,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="116" x14ac:dyDescent="0.35">
@@ -1728,7 +1728,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
@@ -1790,7 +1790,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -2193,7 +2193,7 @@
         <v>140</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="87" x14ac:dyDescent="0.35">
@@ -2637,604 +2637,604 @@
         <v>263</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>266</v>
+        <v>413</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>264</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>265</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>269</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="C72" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>273</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>281</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>285</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>289</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="C77" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>292</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="C78" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>295</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>299</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>303</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>306</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="C82" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>310</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="C84" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>318</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="C85" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>322</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="C86" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>325</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>328</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="C88" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>334</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="C90" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>337</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>342</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="C93" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>345</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="C94" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>349</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="C95" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>352</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="C96" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>355</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="D97" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>360</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="C99" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>363</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="C100" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>367</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="C101" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>370</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="C102" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>374</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>378</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>381</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="C105" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>384</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="C106" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>388</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="C107" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>394</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="C109" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>398</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="C110" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>402</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="C111" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>406</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="C112" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
